--- a/data/Breast_Cancer_DataDic.xlsx
+++ b/data/Breast_Cancer_DataDic.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangdongjae/Desktop/2020/대외활동/암센터 빅데이터 플랫폼 경진대회/Cancer_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D8064F-C572-CE46-B474-E822D5C7D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11664" yWindow="312" windowWidth="10236" windowHeight="10764"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -903,8 +896,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,9 +963,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -987,15 +989,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,10 +1011,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,24 +1331,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B99" sqref="B99:B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,1634 +1371,1622 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>251</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:7" ht="18">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:6" ht="18">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+    <row r="26" spans="1:6" ht="18">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+    <row r="27" spans="1:6" ht="18">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+    <row r="28" spans="1:6" ht="18">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
       <c r="C28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+    <row r="30" spans="1:6" ht="18">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:6" ht="18">
+      <c r="A32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+    <row r="33" spans="1:5" ht="18">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+    <row r="34" spans="1:5" ht="18">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+    <row r="35" spans="1:5" ht="18">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+    <row r="36" spans="1:5" ht="18">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+    <row r="37" spans="1:5" ht="18">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+    <row r="38" spans="1:5" ht="18">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+    <row r="39" spans="1:5" ht="18">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+    <row r="40" spans="1:5" ht="18">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+    <row r="41" spans="1:5" ht="18">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
       <c r="C41" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+    <row r="42" spans="1:5" ht="18">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:5" ht="18">
+      <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>256</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+    <row r="44" spans="1:5" ht="18">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
       <c r="C44" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+    <row r="45" spans="1:5" ht="18">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+    <row r="46" spans="1:5" ht="18">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+    <row r="47" spans="1:5" ht="18">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
       <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+    <row r="48" spans="1:5" ht="18">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
       <c r="C48" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+    <row r="49" spans="1:5" ht="18">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+    <row r="50" spans="1:5" ht="18">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
       <c r="C50" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+    <row r="51" spans="1:5" ht="18">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
       <c r="C51" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+    <row r="52" spans="1:5" ht="18">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
       <c r="C52" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+    <row r="53" spans="1:5" ht="18">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
       <c r="C53" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+    <row r="54" spans="1:5" ht="18">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
       <c r="C54" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:5" ht="18">
+      <c r="A55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="7" t="s">
         <v>257</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+    <row r="56" spans="1:5" ht="18">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
       <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+    <row r="57" spans="1:5" ht="18">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
       <c r="C57" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+    <row r="58" spans="1:5" ht="18">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+    <row r="59" spans="1:5" ht="18">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
       <c r="C59" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+    <row r="60" spans="1:5" ht="18">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
       <c r="C60" t="s">
         <v>155</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+    <row r="61" spans="1:5" ht="18">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
       <c r="C61" t="s">
         <v>156</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+    <row r="62" spans="1:5" ht="18">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
       <c r="C62" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+    <row r="63" spans="1:5" ht="18">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
       <c r="C63" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+    <row r="64" spans="1:5" ht="18">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
       <c r="C64" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:5" ht="18">
+      <c r="A65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="7" t="s">
         <v>258</v>
       </c>
       <c r="C65" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+    <row r="66" spans="1:5" ht="18">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
       <c r="C66" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+    <row r="67" spans="1:5" ht="18">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+    <row r="68" spans="1:5" ht="18">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+    <row r="69" spans="1:5" ht="18">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
       <c r="C69" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+    <row r="70" spans="1:5" ht="18">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
       <c r="C70" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+    <row r="71" spans="1:5" ht="18">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
       <c r="C71" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+    <row r="72" spans="1:5" ht="18">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
       <c r="C72" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+    <row r="73" spans="1:5" ht="18">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
       <c r="C73" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+    <row r="74" spans="1:5" ht="18">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+    <row r="75" spans="1:5" ht="18">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+    <row r="76" spans="1:5" ht="18">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+    <row r="77" spans="1:5" ht="18">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
       <c r="C77" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:5" ht="18">
+      <c r="A78" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="7" t="s">
         <v>259</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+    <row r="79" spans="1:5" ht="18">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
       <c r="C79" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+    <row r="80" spans="1:5" ht="18">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
       <c r="C80" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+    <row r="81" spans="1:5" ht="18">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
       <c r="C81" t="s">
         <v>166</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+    <row r="82" spans="1:5" ht="18">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
       <c r="C82" t="s">
         <v>167</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+    <row r="83" spans="1:5" ht="18">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
       <c r="C83" t="s">
         <v>210</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+    <row r="84" spans="1:5" ht="18">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
       <c r="C84" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+    <row r="85" spans="1:5" ht="18">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
       <c r="C85" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:5" ht="18">
+      <c r="A86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="7" t="s">
         <v>260</v>
       </c>
       <c r="C86" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+    <row r="87" spans="1:5" ht="18">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
       <c r="C87" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+    <row r="88" spans="1:5" ht="18">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
       <c r="C88" t="s">
         <v>40</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+    <row r="89" spans="1:5" ht="18">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
       <c r="C89" t="s">
         <v>216</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+    <row r="90" spans="1:5" ht="18">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
       <c r="C90" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+    <row r="91" spans="1:5" ht="18">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
       <c r="C91" t="s">
         <v>170</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+    <row r="92" spans="1:5" ht="18">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
       <c r="C92" t="s">
         <v>171</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+    <row r="93" spans="1:5" ht="18">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
       <c r="C93" t="s">
         <v>172</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+    <row r="94" spans="1:5" ht="18">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
       <c r="C94" t="s">
         <v>226</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+    <row r="95" spans="1:5" ht="18">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
       <c r="C95" t="s">
         <v>173</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+    <row r="96" spans="1:5" ht="18">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
       <c r="C96" t="s">
         <v>174</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+    <row r="97" spans="1:5" ht="18">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
       <c r="C97" t="s">
         <v>235</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+    <row r="98" spans="1:5" ht="18">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
       <c r="C98" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:5" ht="18">
+      <c r="A99" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="8" t="s">
         <v>261</v>
       </c>
       <c r="C99" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+    <row r="100" spans="1:5" ht="18">
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>56</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+    <row r="101" spans="1:5" ht="18">
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
       <c r="C101" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+    <row r="102" spans="1:5" ht="18">
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
       <c r="C102" t="s">
         <v>236</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+    <row r="103" spans="1:5" ht="18">
+      <c r="A103" s="7"/>
+      <c r="B103" s="8"/>
       <c r="C103" t="s">
         <v>175</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+    <row r="104" spans="1:5" ht="18">
+      <c r="A104" s="7"/>
+      <c r="B104" s="8"/>
       <c r="C104" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+    <row r="105" spans="1:5" ht="18">
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
       <c r="C105" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>17</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>18</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>19</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>20</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>21</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>33</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>34</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>35</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>36</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>22</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>23</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>24</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>25</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="7"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>27</v>
       </c>
-      <c r="B120" s="7"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B120" s="6"/>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="7"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B121" s="6"/>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>29</v>
       </c>
-      <c r="B122" s="7"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B122" s="6"/>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>30</v>
       </c>
-      <c r="B123" s="7"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B123" s="6"/>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>31</v>
       </c>
-      <c r="B124" s="7"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B124" s="6"/>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>32</v>
       </c>
-      <c r="B125" s="7"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B126" s="7"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B127" s="7"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B128" s="7"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B129" s="7"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B130" s="7"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B125" s="6"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="B128" s="6"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" spans="2:2">
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B132" s="7"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B133" s="7"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B134" s="7"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B135" s="7"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B136" s="7"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B137" s="7"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:2">
+      <c r="B132" s="6"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="6"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="6"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="6"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="6"/>
+    </row>
+    <row r="138" spans="2:2">
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:2">
       <c r="B139" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="A86:A98"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="B86:B98"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="B65:B77"/>
     <mergeCell ref="A20:A31"/>
     <mergeCell ref="B20:B31"/>
     <mergeCell ref="A32:A42"/>
@@ -3002,6 +2995,18 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A8:A19"/>
     <mergeCell ref="B8:B19"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="A86:A98"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="B86:B98"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
